--- a/Work sheet.xlsx
+++ b/Work sheet.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="11020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Table 1</t>
   </si>
@@ -37,15 +39,27 @@
   <si>
     <t>Remark</t>
   </si>
+  <si>
+    <t>6:00pm</t>
+  </si>
+  <si>
+    <t>8:30pm</t>
+  </si>
+  <si>
+    <t>*see some quiz web how it work and in which effective manner quiz is display.</t>
+  </si>
+  <si>
+    <t>www.webquiz.it,www.pewinternet.org</t>
+  </si>
+  <si>
+    <t>*create model of web and design home,login,profile,register pages and create form for adding quiz by admin.*know more about firebase database and how to use.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -57,9 +71,15 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -197,70 +217,133 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -459,7 +542,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -478,7 +561,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -508,7 +591,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -534,7 +617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -560,7 +643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -586,7 +669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -612,7 +695,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -638,7 +721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -664,7 +747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,9 +812,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -748,7 +837,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -767,7 +856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -793,7 +882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -819,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -845,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -871,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +1012,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +1038,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +1064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,9 +1103,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1030,7 +1125,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1049,7 +1144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1174,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,7 +1304,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +1330,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1356,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1382,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,262 +1395,286 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="27.65" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+    <row r="3" spans="1:7" ht="125.5" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Work sheet.xlsx
+++ b/Work sheet.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAMESH\Desktop\Quizgator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B489DB0C-C804-4E85-AC19-6BDA605349FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Table 1</t>
   </si>
@@ -37,15 +45,21 @@
   <si>
     <t>Remark</t>
   </si>
+  <si>
+    <t>https://firebase.google.com/docs/</t>
+  </si>
+  <si>
+    <t>Research deeply about firebase through it's documentation and search about how different feature of firebase works.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search about firebase and how it's feature works. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -57,9 +71,15 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -197,70 +217,142 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -459,7 +551,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -478,7 +570,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -508,7 +600,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -534,7 +626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -560,7 +652,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -586,7 +678,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -612,7 +704,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -638,7 +730,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -664,7 +756,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +782,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,9 +821,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -748,7 +846,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -767,7 +865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -793,7 +891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -819,7 +917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -845,7 +943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -871,7 +969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +1021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +1047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +1073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,9 +1112,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1030,7 +1134,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1049,7 +1153,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1183,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1209,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,7 +1235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,7 +1261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,262 +1404,288 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="1" customWidth="1"/>
+    <col min="5" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="27.6" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+    <row r="3" spans="1:7" ht="60.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{BE3E1E10-95A7-49DB-8358-9807FCEDD297}"/>
+  </hyperlinks>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Work sheet.xlsx
+++ b/Work sheet.xlsx
@@ -46,13 +46,13 @@
     <t>8:30pm</t>
   </si>
   <si>
-    <t>*see some quiz web how it work and in which effective manner quiz is display.</t>
-  </si>
-  <si>
     <t>www.webquiz.it,www.pewinternet.org</t>
   </si>
   <si>
     <t>*create model of web and design home,login,profile,register pages and create form for adding quiz by admin.*know more about firebase database and how to use.</t>
+  </si>
+  <si>
+    <t>see some quiz web how it work and in which effective manner quiz is display.</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1423,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1476,13 +1476,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="5"/>
     </row>

--- a/Work sheet.xlsx
+++ b/Work sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Table 1</t>
   </si>
@@ -53,6 +53,24 @@
   </si>
   <si>
     <t>see some quiz web how it work and in which effective manner quiz is display.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:00pm </t>
+  </si>
+  <si>
+    <t>11:00pm</t>
+  </si>
+  <si>
+    <t>*create protoype using addobe xd rethink about databases and use mongodb database for web.</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/Which-is-better-MongoDB-or-Firebase</t>
+  </si>
+  <si>
+    <t>To create web for *front-end:codigniter framework,jquery,ajax*backend:firebase and mongoDB  *server:wamp</t>
+  </si>
+  <si>
+    <t>easy to connect codigniter with mongodb then firebase and provide some useful  fiture then firebase</t>
   </si>
 </sst>
 </file>
@@ -225,7 +243,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -258,6 +276,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1423,7 +1444,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1486,14 +1507,28 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+    <row r="4" spans="1:7" ht="94.5" customHeight="1">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="6"/>
@@ -1672,6 +1707,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>

--- a/Work sheet.xlsx
+++ b/Work sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAMESH\Desktop\Quizgator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B489DB0C-C804-4E85-AC19-6BDA605349FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B97EB5-9057-40D4-985E-5A0A9249BD95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Table 1</t>
   </si>
@@ -53,6 +53,31 @@
   </si>
   <si>
     <t xml:space="preserve">search about firebase and how it's feature works. </t>
+  </si>
+  <si>
+    <t>date:11/1/2019</t>
+  </si>
+  <si>
+    <t>Research about technologies which are required for following!
+ 1. front-end:Xml,html,css
+ 2. back-end:java,php,python,
+ 3. server:aws,Apache,Firebase
+ 4. database:MongoDB,SQLite,Mysql,Firebase(Real time database) etc..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search about technology required for front-end,bach-end,server,database of application </t>
+  </si>
+  <si>
+    <t>search abiut the formate of quiz</t>
+  </si>
+  <si>
+    <t>https://www.quiz-zone.co.uk/runningaquiz/format.html</t>
+  </si>
+  <si>
+    <t>https://cdl.ucf.edu/support/webcourses/respondus/quiz-formatting-guidelines/</t>
+  </si>
+  <si>
+    <t>prototype of quiz app in adob xd</t>
   </si>
 </sst>
 </file>
@@ -225,7 +250,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -250,9 +275,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -264,6 +286,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1432,26 +1463,26 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="16.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" style="1" customWidth="1"/>
     <col min="5" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="32.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1480,10 +1511,10 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>0.4861111111111111</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1492,27 +1523,47 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
+    <row r="4" spans="1:7" ht="98.25" customHeight="1">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="26.25" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="13">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">

--- a/Work sheet.xlsx
+++ b/Work sheet.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Table 1</t>
   </si>
@@ -22,6 +20,9 @@
     <t>Serial number</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Start time</t>
   </si>
   <si>
@@ -46,15 +47,23 @@
     <t>8:30pm</t>
   </si>
   <si>
-    <t>www.webquiz.it,www.pewinternet.org</t>
-  </si>
-  <si>
     <t>*create model of web and design home,login,profile,register pages and create form for adding quiz by admin.*know more about firebase database and how to use.</t>
   </si>
   <si>
     <t>see some quiz web how it work and in which effective manner quiz is display.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>www.webquiz.it,www.pewinternet.org</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">7:00pm </t>
   </si>
   <si>
@@ -64,20 +73,31 @@
     <t>*create protoype using addobe xd rethink about databases and use mongodb database for web.</t>
   </si>
   <si>
-    <t>https://www.quora.com/Which-is-better-MongoDB-or-Firebase</t>
+    <t>easy to connect codigniter with mongodb then firebase and provide some useful  fiture then firebase</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.quora.com/Which-is-better-MongoDB-or-Firebase</t>
+    </r>
   </si>
   <si>
     <t>To create web for *front-end:codigniter framework,jquery,ajax*backend:firebase and mongoDB  *server:wamp</t>
-  </si>
-  <si>
-    <t>easy to connect codigniter with mongodb then firebase and provide some useful  fiture then firebase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -89,19 +109,24 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color indexed="15"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,8 +145,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -133,6 +164,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -146,7 +199,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -155,7 +208,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -164,43 +217,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -209,162 +262,171 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -374,10 +436,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -554,40 +616,43 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -612,7 +677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -638,7 +703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -664,7 +729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +807,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,7 +833,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,7 +885,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,15 +898,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -850,15 +909,15 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -877,7 +936,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -903,7 +962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -929,7 +988,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,7 +1014,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -981,7 +1040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,7 +1066,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1092,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1170,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1124,15 +1183,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1146,26 +1199,26 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1195,7 +1248,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1221,7 +1274,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1247,7 +1300,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1273,7 +1326,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1299,7 +1352,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1325,7 +1378,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1351,7 +1404,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1377,7 +1430,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1403,7 +1456,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1416,301 +1469,315 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="16.36328125" style="1" customWidth="1"/>
+    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.65" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="32.25" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="125.5" customHeight="1">
-      <c r="A3" s="3">
+      <c r="H2" t="s" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="125.5" customHeight="1">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1">
-      <c r="A4" s="6">
+      <c r="G3" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" ht="94.5" customHeight="1">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="H4" t="s" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="G4" r:id="rId2" location="" tooltip="" display=""/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Work sheet.xlsx
+++ b/Work sheet.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAMESH\Desktop\Quizgator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B97EB5-9057-40D4-985E-5A0A9249BD95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Table 1</t>
   </si>
   <si>
     <t>Serial number</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Start time</t>
@@ -46,13 +41,21 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>https://firebase.google.com/docs/</t>
-  </si>
-  <si>
     <t>Research deeply about firebase through it's documentation and search about how different feature of firebase works.</t>
   </si>
   <si>
     <t xml:space="preserve">search about firebase and how it's feature works. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://firebase.google.com/docs/</t>
+    </r>
   </si>
   <si>
     <t>date:11/1/2019</t>
@@ -68,23 +71,26 @@
     <t xml:space="preserve">search about technology required for front-end,bach-end,server,database of application </t>
   </si>
   <si>
+    <t>https://www.quiz-zone.co.uk/runningaquiz/format.html</t>
+  </si>
+  <si>
+    <t>prototype of quiz app in adob xd</t>
+  </si>
+  <si>
     <t>search abiut the formate of quiz</t>
   </si>
   <si>
-    <t>https://www.quiz-zone.co.uk/runningaquiz/format.html</t>
-  </si>
-  <si>
     <t>https://cdl.ucf.edu/support/webcourses/respondus/quiz-formatting-guidelines/</t>
-  </si>
-  <si>
-    <t>prototype of quiz app in adob xd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -96,19 +102,24 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color indexed="15"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +138,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -140,6 +157,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -153,7 +192,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -162,7 +201,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -171,43 +210,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -216,174 +255,186 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -393,10 +444,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -573,40 +624,43 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -631,7 +685,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -657,7 +711,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -683,7 +737,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -709,7 +763,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -735,7 +789,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -761,7 +815,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -787,7 +841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -813,7 +867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,15 +906,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -869,15 +917,15 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -896,7 +944,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -922,7 +970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,7 +996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -974,7 +1022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1000,7 +1048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +1074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,7 +1100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1104,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,7 +1178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1143,15 +1191,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1165,26 +1207,26 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,7 +1282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,7 +1308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,7 +1386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1370,7 +1412,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1396,7 +1438,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1422,7 +1464,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,308 +1477,322 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="16.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5703125" style="1" customWidth="1"/>
-    <col min="5" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5" style="1" customWidth="1"/>
+    <col min="6" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="27.6" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="32.25" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="60.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="H2" t="s" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="60.75" customHeight="1">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
-        <v>0.35416666666666669</v>
-      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="9">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D3" s="10">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="98.25" customHeight="1">
-      <c r="A4" s="5">
+      <c r="G3" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" ht="98.25" customHeight="1">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="11" t="s">
+      <c r="B4" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s" s="17">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="17">
         <v>15</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="13">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" ht="26.25" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="E5" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="G5" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" ht="20.1" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" ht="20.1" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" ht="20.1" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" ht="20.1" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" ht="20.1" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" ht="20.1" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" ht="20.1" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{BE3E1E10-95A7-49DB-8358-9807FCEDD297}"/>
+    <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Work sheet.xlsx
+++ b/Work sheet.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAMESH\Desktop\Quizgator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8621F13-DE3E-4BFB-A1F0-1D84FED70D43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Table 1</t>
   </si>
@@ -49,7 +57,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Helvetica Neue"/>
@@ -77,20 +85,35 @@
     <t>prototype of quiz app in adob xd</t>
   </si>
   <si>
-    <t>search abiut the formate of quiz</t>
-  </si>
-  <si>
     <t>https://cdl.ucf.edu/support/webcourses/respondus/quiz-formatting-guidelines/</t>
+  </si>
+  <si>
+    <t>date:17/1/2019</t>
+  </si>
+  <si>
+    <t>Research about Material design Guide line.</t>
+  </si>
+  <si>
+    <t>Redesign prototype</t>
+  </si>
+  <si>
+    <t>search about the formate of quiz</t>
+  </si>
+  <si>
+    <t>Refer the whole description of material design.</t>
+  </si>
+  <si>
+    <t>Redesign prototype according to Material deisgn standard</t>
+  </si>
+  <si>
+    <t>https://material.io/design/introduction/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -102,18 +125,13 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="15"/>
       <name val="Helvetica Neue"/>
@@ -145,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -325,84 +343,275 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,29 +621,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -636,7 +901,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -655,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -685,7 +950,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,7 +976,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,7 +1002,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -763,7 +1028,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -789,7 +1054,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -815,7 +1080,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -841,7 +1106,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -867,7 +1132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -893,7 +1158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -906,9 +1171,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -925,7 +1196,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -944,7 +1215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,7 +1241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1074,7 +1345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1100,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1397,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1423,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1449,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1191,9 +1462,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1207,7 +1484,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1226,7 +1503,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1585,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1611,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1637,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1386,7 +1663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1412,7 +1689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1438,7 +1715,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1464,7 +1741,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1477,322 +1754,357 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5" style="1" customWidth="1"/>
-    <col min="6" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="6">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="60.75" customHeight="1">
-      <c r="A3" s="7">
+    <row r="3" spans="1:8" ht="60.75" customHeight="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D3" s="6">
         <v>0.4861111111111111</v>
       </c>
-      <c r="E3" t="s" s="11">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s" s="11">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s" s="11">
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" ht="98.25" customHeight="1">
-      <c r="A4" s="13">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="98.25" customHeight="1">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" t="s" s="16">
+      <c r="C4" s="25">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s" s="17">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s" s="17">
+      <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" ht="26.25" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="E5" t="s" s="17">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="26.25" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s" s="17">
+      <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s" s="17">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="38.25" customHeight="1">
+      <c r="A6" s="33">
+        <v>3</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" ht="20.1" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" ht="20.1" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" ht="20.1" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" ht="20.1" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" ht="20.1" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" ht="20.1" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" ht="20.1" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" ht="20.1" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" ht="20.1" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="C6" s="31">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.4375</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Work sheet.xlsx
+++ b/Work sheet.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="11020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Table 1</t>
   </si>
@@ -20,9 +22,6 @@
     <t>Serial number</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Start time</t>
   </si>
   <si>
@@ -47,23 +46,15 @@
     <t>8:30pm</t>
   </si>
   <si>
+    <t>www.webquiz.it,www.pewinternet.org</t>
+  </si>
+  <si>
     <t>*create model of web and design home,login,profile,register pages and create form for adding quiz by admin.*know more about firebase database and how to use.</t>
   </si>
   <si>
     <t>see some quiz web how it work and in which effective manner quiz is display.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>www.webquiz.it,www.pewinternet.org</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">7:00pm </t>
   </si>
   <si>
@@ -73,31 +64,29 @@
     <t>*create protoype using addobe xd rethink about databases and use mongodb database for web.</t>
   </si>
   <si>
+    <t>https://www.quora.com/Which-is-better-MongoDB-or-Firebase</t>
+  </si>
+  <si>
+    <t>To create web for *front-end:codigniter framework,jquery,ajax*backend:firebase and mongoDB  *server:wamp</t>
+  </si>
+  <si>
     <t>easy to connect codigniter with mongodb then firebase and provide some useful  fiture then firebase</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.quora.com/Which-is-better-MongoDB-or-Firebase</t>
-    </r>
-  </si>
-  <si>
-    <t>To create web for *front-end:codigniter framework,jquery,ajax*backend:firebase and mongoDB  *server:wamp</t>
+    <t>4:00pm</t>
+  </si>
+  <si>
+    <t>8:00pm</t>
+  </si>
+  <si>
+    <t>redesign prototype and learn about mongodb database and complete more work of  web and tomorrow submit website with basic design.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -109,24 +98,19 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
-      <color indexed="15"/>
+      <color theme="10"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,14 +129,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -164,28 +142,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -199,7 +155,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -208,7 +164,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -217,43 +173,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -262,171 +218,162 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -436,10 +383,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="5E5E5E"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="D5D5D5"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -616,43 +563,40 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -677,7 +621,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,7 +647,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,7 +673,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,7 +699,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,7 +725,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,7 +751,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,7 +777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,7 +803,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,7 +829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,9 +842,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -909,15 +859,15 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -936,7 +886,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +912,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +938,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +964,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +990,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +1094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +1120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,9 +1133,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1199,26 +1155,26 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +1282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,7 +1386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1456,7 +1412,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,315 +1425,309 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="27.65" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="6">
+    </row>
+    <row r="3" spans="1:7" ht="125.5" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="125.5" customHeight="1">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s" s="10">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="94.5" customHeight="1">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" ht="94.5" customHeight="1">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" t="s" s="14">
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="15">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="15">
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s" s="15">
+      <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s" s="15">
+    </row>
+    <row r="5" spans="1:7" ht="104" customHeight="1">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="G4" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Work sheet.xlsx
+++ b/Work sheet.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Table 1</t>
   </si>
@@ -22,6 +20,9 @@
     <t>Serial number</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Start time</t>
   </si>
   <si>
@@ -46,15 +47,23 @@
     <t>8:30pm</t>
   </si>
   <si>
-    <t>www.webquiz.it,www.pewinternet.org</t>
-  </si>
-  <si>
     <t>*create model of web and design home,login,profile,register pages and create form for adding quiz by admin.*know more about firebase database and how to use.</t>
   </si>
   <si>
     <t>see some quiz web how it work and in which effective manner quiz is display.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>www.webquiz.it,www.pewinternet.org</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">7:00pm </t>
   </si>
   <si>
@@ -64,13 +73,21 @@
     <t>*create protoype using addobe xd rethink about databases and use mongodb database for web.</t>
   </si>
   <si>
-    <t>https://www.quora.com/Which-is-better-MongoDB-or-Firebase</t>
+    <t>easy to connect codigniter with mongodb then firebase and provide some useful  fiture then firebase</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.quora.com/Which-is-better-MongoDB-or-Firebase</t>
+    </r>
   </si>
   <si>
     <t>To create web for *front-end:codigniter framework,jquery,ajax*backend:firebase and mongoDB  *server:wamp</t>
-  </si>
-  <si>
-    <t>easy to connect codigniter with mongodb then firebase and provide some useful  fiture then firebase</t>
   </si>
   <si>
     <t>4:00pm</t>
@@ -85,8 +102,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -98,19 +118,24 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color indexed="15"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +154,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -142,6 +173,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -155,7 +208,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -164,7 +217,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -173,43 +226,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -218,162 +271,171 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -383,10 +445,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -563,40 +625,43 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -621,7 +686,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -647,7 +712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -673,7 +738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -699,7 +764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -725,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -751,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -777,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -803,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -829,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -842,15 +907,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -859,15 +918,15 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -886,7 +945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,7 +971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -938,7 +997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -964,7 +1023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,7 +1049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +1075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1101,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +1127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +1153,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1179,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,15 +1192,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1155,26 +1208,26 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1257,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1309,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1386,7 +1439,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1412,7 +1465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1425,309 +1478,323 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="16.36328125" style="1" customWidth="1"/>
+    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.65" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="32.25" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="125.5" customHeight="1">
-      <c r="A3" s="3">
+      <c r="H2" t="s" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="125.5" customHeight="1">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1">
-      <c r="A4" s="6">
+      <c r="G3" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" ht="94.5" customHeight="1">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="104" customHeight="1">
-      <c r="A5" s="6">
+      <c r="H4" t="s" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="104" customHeight="1">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="E5" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="G4" r:id="rId2" location="" tooltip="" display=""/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
